--- a/Drought_Influence_Study/Data/drought data_10-9-25.xlsx
+++ b/Drought_Influence_Study/Data/drought data_10-9-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-Study/Drought_Influence_Study/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCD85C-4904-D54A-8D69-71C8B9019A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0523896F-0AF7-C740-BB73-E2D77E0BF0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="20220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trials with SAMMAZ-52" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="141">
   <si>
     <t>variety</t>
   </si>
@@ -432,9 +432,6 @@
     <t>23.5</t>
   </si>
   <si>
-    <t>oviposition set-up using potted-plants</t>
-  </si>
-  <si>
     <t>plant_number</t>
   </si>
   <si>
@@ -460,13 +457,16 @@
   </si>
   <si>
     <t>on the floor of the wind tunnel and cup</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,21 +491,30 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,6 +545,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3095,19 +3106,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="9" customWidth="1"/>
+    <col min="1" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.1640625" customWidth="1"/>
     <col min="13" max="13" width="24.33203125" customWidth="1"/>
     <col min="14" max="14" width="35.83203125" customWidth="1"/>
-    <col min="15" max="16" width="9" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
     <col min="17" max="17" width="27.83203125" customWidth="1"/>
-    <col min="18" max="20" width="9" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="20" width="9" customWidth="1"/>
     <col min="21" max="21" width="30.6640625" customWidth="1"/>
     <col min="22" max="22" width="41.1640625" customWidth="1"/>
     <col min="23" max="23" width="26.1640625" customWidth="1"/>
@@ -3115,1599 +3133,1599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>90</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>138</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>43</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>48</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>25</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>12</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>102</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="7">
         <v>10</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>40</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>120</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="5">
         <f t="shared" ref="P2:P21" si="0">K2-O2</f>
         <v>-18</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="7">
         <v>100</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>154</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>49</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>54</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>25</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>13.5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>113.5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>10</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <v>30</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="5">
         <v>134</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
         <v>-20.5</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="7">
         <v>70</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>90</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>112</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>44</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>25</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>5.5</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>95.5</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>30</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="5">
         <v>82</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="5">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>70</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>90</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>110</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>48</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>25</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>95</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>20</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>30</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="5">
         <v>94</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <v>80</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6" t="s">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>90</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>122</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>49</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>32</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>25</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>8</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>98</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>30</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>60</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="5">
         <v>98</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="7">
         <v>80</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6" t="s">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>102</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>51</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>100</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>102</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>20</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>40</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>84</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="7">
         <v>70</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6" t="s">
+      <c r="V7" s="7"/>
+      <c r="W7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>14</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>90</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>148</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>47</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>58</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>58</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>148</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>10</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>182</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
         <v>-34</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="7">
         <v>40</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6" t="s">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>138</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>50</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>38</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>138</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>10</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>10</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="5">
         <v>166</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>-28</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <v>40</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6" t="s">
+      <c r="V9" s="7"/>
+      <c r="W9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>110</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>112</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>50</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>112</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>20</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="7">
         <v>80</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6" t="s">
+      <c r="V10" s="7"/>
+      <c r="W10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>90</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>96</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>43</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>6</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>100</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>96</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>10</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>30</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>80</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="7">
         <v>60</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>200</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>206</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>43</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>6</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>25</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="5">
         <v>1.5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="5">
         <v>201.5</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <v>50</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>70</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="5">
         <v>172</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="7">
         <v>80</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6" t="s">
+      <c r="V12" s="7"/>
+      <c r="W12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>210</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>258</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>41</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>48</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>25</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>12</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>222</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>20</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <v>212</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="7">
         <v>70</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6" t="s">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>200</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
         <v>280</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>46</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>80</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>25</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="5">
         <v>20</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="5">
         <v>220</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <v>30</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="7">
         <v>50</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="5">
         <v>246</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="7">
         <v>80</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6" t="s">
+      <c r="V14" s="7"/>
+      <c r="W14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>220</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>324</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>46</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>104</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>25</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <v>26</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>246</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="7">
         <v>20</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="5">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="7">
         <v>70</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6" t="s">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>9</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>200</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <v>258</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>51</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>58</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="5">
         <v>25</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="5">
         <v>14.5</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="5">
         <v>214.5</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="7">
         <v>20</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="5">
         <v>214</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="7">
         <v>90</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6" t="s">
+      <c r="V16" s="7"/>
+      <c r="W16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>200</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>214</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>50</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>14</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="5">
         <v>14</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>214</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <v>10</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>30</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="5">
         <v>204</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="7">
         <v>70</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="U17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6" t="s">
+      <c r="V17" s="7"/>
+      <c r="W17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="X17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y17" s="6" t="s">
+      <c r="Y17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>210</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <v>258</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>43</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>48</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="5">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="5">
         <v>48</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="5">
         <v>258</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>20</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>30</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="5">
         <v>270</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="5">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="7">
         <v>60</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6" t="s">
+      <c r="V18" s="7"/>
+      <c r="W18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="X18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>200</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <v>256</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>46</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>56</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="5">
         <v>100</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="5">
         <v>56</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="5">
         <v>256</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <v>10</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="5">
         <v>288</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="5">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="7">
         <v>60</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6" t="s">
+      <c r="V19" s="7"/>
+      <c r="W19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="X19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>17</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>190</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="5">
         <v>254</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>51</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>64</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="5">
         <v>64</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>254</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="7">
         <v>10</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="7">
         <v>30</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="5">
         <v>288</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="5">
         <f t="shared" si="0"/>
         <v>-34</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="7">
         <v>50</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6" t="s">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="X20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>20</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>200</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="5">
         <v>292</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>47</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>92</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="5">
         <v>92</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <v>292</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="7">
         <v>30</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="7">
         <v>30</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="5">
         <v>372</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="5">
         <f t="shared" si="0"/>
         <v>-80</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="7">
         <v>60</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6" t="s">
+      <c r="V21" s="7"/>
+      <c r="W21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="X21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4728,108 +4746,108 @@
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="U24" s="4"/>
+      <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q25" s="3"/>
-      <c r="U25" s="6"/>
-      <c r="W25" s="6"/>
+      <c r="U25" s="4"/>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q26" s="3"/>
-      <c r="U26" s="6"/>
-      <c r="W26" s="6"/>
+      <c r="U26" s="4"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q27" s="3"/>
-      <c r="U27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="U27" s="4"/>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q28" s="3"/>
-      <c r="U28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="U28" s="4"/>
+      <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q29" s="3"/>
-      <c r="U29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="U29" s="4"/>
+      <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q30" s="3"/>
-      <c r="U30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="U30" s="4"/>
+      <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q31" s="3"/>
-      <c r="U31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="U31" s="4"/>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q32" s="3"/>
-      <c r="U32" s="6"/>
-      <c r="W32" s="6"/>
+      <c r="U32" s="4"/>
+      <c r="W32" s="4"/>
     </row>
     <row r="33" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q33" s="3"/>
-      <c r="U33" s="6"/>
-      <c r="W33" s="6"/>
+      <c r="U33" s="4"/>
+      <c r="W33" s="4"/>
     </row>
     <row r="34" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q34" s="3"/>
-      <c r="U34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="U34" s="4"/>
+      <c r="W34" s="4"/>
     </row>
     <row r="35" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q35" s="3"/>
-      <c r="U35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="U35" s="4"/>
+      <c r="W35" s="4"/>
     </row>
     <row r="36" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q36" s="3"/>
-      <c r="U36" s="6"/>
-      <c r="W36" s="6"/>
+      <c r="U36" s="4"/>
+      <c r="W36" s="4"/>
     </row>
     <row r="37" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q37" s="3"/>
-      <c r="U37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="U37" s="4"/>
+      <c r="W37" s="4"/>
     </row>
     <row r="38" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q38" s="3"/>
-      <c r="U38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="U38" s="4"/>
+      <c r="W38" s="4"/>
     </row>
     <row r="39" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q39" s="3"/>
-      <c r="U39" s="6"/>
-      <c r="W39" s="6"/>
+      <c r="U39" s="4"/>
+      <c r="W39" s="4"/>
     </row>
     <row r="40" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q40" s="3"/>
-      <c r="U40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="U40" s="4"/>
+      <c r="W40" s="4"/>
     </row>
     <row r="41" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q41" s="3"/>
-      <c r="U41" s="6"/>
-      <c r="W41" s="6"/>
+      <c r="U41" s="4"/>
+      <c r="W41" s="4"/>
     </row>
     <row r="42" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q42" s="3"/>
-      <c r="U42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="U42" s="4"/>
+      <c r="W42" s="4"/>
     </row>
     <row r="43" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q43" s="3"/>
-      <c r="U43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="U43" s="4"/>
+      <c r="W43" s="4"/>
     </row>
     <row r="44" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q44" s="3"/>
-      <c r="U44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="U44" s="4"/>
+      <c r="W44" s="4"/>
     </row>
     <row r="45" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="17:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5798,9 +5816,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5813,10 +5833,19 @@
     <col min="11" max="11" width="46" customWidth="1"/>
     <col min="12" max="12" width="32.1640625" customWidth="1"/>
     <col min="13" max="13" width="49" customWidth="1"/>
-    <col min="14" max="26" width="9" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5880,8 +5909,11 @@
       <c r="U1" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -5949,8 +5981,11 @@
       <c r="U2" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -6018,8 +6053,11 @@
       <c r="U3" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -6087,8 +6125,11 @@
       <c r="U4" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
@@ -6156,8 +6197,11 @@
       <c r="U5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -6225,8 +6269,11 @@
       <c r="U6" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -6294,8 +6341,11 @@
       <c r="U7" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
@@ -6363,8 +6413,11 @@
       <c r="U8" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -6432,8 +6485,11 @@
       <c r="U9" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -6501,8 +6557,11 @@
       <c r="U10" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -6570,8 +6629,11 @@
       <c r="U11" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>104</v>
       </c>
@@ -6639,8 +6701,11 @@
       <c r="U12" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -6708,8 +6773,11 @@
       <c r="U13" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -6777,8 +6845,11 @@
       <c r="U14" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -6846,8 +6917,11 @@
       <c r="U15" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -6914,8 +6988,11 @@
       <c r="U16" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -6983,8 +7060,11 @@
       <c r="U17" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
@@ -7052,8 +7132,11 @@
       <c r="U18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
@@ -7121,8 +7204,11 @@
       <c r="U19" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -7190,8 +7276,11 @@
       <c r="U20" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -7259,8 +7348,11 @@
       <c r="U21" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -7328,8 +7420,11 @@
       <c r="U22" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -7397,8 +7492,11 @@
       <c r="U23" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -7466,8 +7564,11 @@
       <c r="U24" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
@@ -7535,8 +7636,11 @@
       <c r="U25" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -7604,8 +7708,11 @@
       <c r="U26" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -7673,8 +7780,11 @@
       <c r="U27" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -7742,8 +7852,11 @@
       <c r="U28" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -7811,8 +7924,11 @@
       <c r="U29" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -7880,8 +7996,11 @@
       <c r="U30" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -7949,14 +8068,15 @@
       <c r="U31" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="V31" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="4:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="4:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="4:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="4:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="4:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8936,8 +9056,8 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8956,34 +9076,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>138</v>
+      <c r="L1" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -9011,16 +9131,16 @@
       <c r="H2" s="3">
         <v>45899</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9049,16 +9169,16 @@
       <c r="H3" s="3">
         <v>45899</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>3</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9087,16 +9207,16 @@
       <c r="H4" s="3">
         <v>45899</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9125,16 +9245,16 @@
       <c r="H5" s="3">
         <v>45899</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -9163,16 +9283,16 @@
       <c r="H6" s="3">
         <v>45899</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9201,16 +9321,16 @@
       <c r="H7" s="3">
         <v>45899</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9239,16 +9359,16 @@
       <c r="H8" s="3">
         <v>45899</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9277,16 +9397,16 @@
       <c r="H9" s="3">
         <v>45899</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>3</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9315,16 +9435,16 @@
       <c r="H10" s="3">
         <v>45899</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>5</v>
       </c>
     </row>
@@ -9353,16 +9473,16 @@
       <c r="H11" s="3">
         <v>45899</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>3</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>5</v>
       </c>
     </row>
@@ -9391,16 +9511,16 @@
       <c r="H12" s="3">
         <v>45899</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9429,16 +9549,16 @@
       <c r="H13" s="3">
         <v>45899</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9467,16 +9587,16 @@
       <c r="H14" s="3">
         <v>45899</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9505,16 +9625,16 @@
       <c r="H15" s="3">
         <v>45899</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9543,20 +9663,20 @@
       <c r="H16" s="3">
         <v>45899</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>3</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>3</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -9584,20 +9704,20 @@
       <c r="H17" s="3">
         <v>45899</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>3</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>3</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -9625,20 +9745,20 @@
       <c r="H18" s="3">
         <v>45899</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -9666,20 +9786,20 @@
       <c r="H19" s="3">
         <v>45899</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <v>3</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <v>3</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -9707,20 +9827,20 @@
       <c r="H20" s="3">
         <v>45899</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <v>3</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -9748,20 +9868,20 @@
       <c r="H21" s="3">
         <v>45899</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>0</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>3</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <v>3</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -9789,16 +9909,16 @@
       <c r="H22" s="3">
         <v>45902</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="4">
         <v>2</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>3</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9827,16 +9947,16 @@
       <c r="H23" s="3">
         <v>45902</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <v>2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <v>4</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <v>2</v>
       </c>
     </row>
@@ -9865,16 +9985,16 @@
       <c r="H24" s="3">
         <v>45902</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
         <v>0</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9903,16 +10023,16 @@
       <c r="H25" s="3">
         <v>45902</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <v>0</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9941,16 +10061,16 @@
       <c r="H26" s="3">
         <v>45902</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>1</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>2</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>2</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9979,16 +10099,16 @@
       <c r="H27" s="3">
         <v>45902</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>2</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>2</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>2</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="4">
         <v>3</v>
       </c>
     </row>
@@ -10017,16 +10137,16 @@
       <c r="H28" s="3">
         <v>45902</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
         <v>2</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="4">
         <v>2</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
         <v>3</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="4">
         <v>3</v>
       </c>
     </row>
@@ -10055,16 +10175,16 @@
       <c r="H29" s="3">
         <v>45902</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="4">
         <v>2</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="4">
         <v>2</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="4">
         <v>3</v>
       </c>
     </row>
@@ -10093,16 +10213,16 @@
       <c r="H30" s="3">
         <v>45902</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="4">
         <v>0</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10131,16 +10251,16 @@
       <c r="H31" s="3">
         <v>45902</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="4">
         <v>0</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="4">
         <v>0</v>
       </c>
     </row>
